--- a/src/main/java/com/vapsTechnosoft/IVRM/data/ExamMasters.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/ExamMasters.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15255" windowHeight="7185"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15255" windowHeight="7185" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ExamMasterCategory_FormData" sheetId="2" r:id="rId1"/>
     <sheet name="CategoryClassMapping_FormDat" sheetId="3" r:id="rId2"/>
     <sheet name="CategoryClassMapping_2ndData" sheetId="4" r:id="rId3"/>
+    <sheet name="ExamMasterSubGr_WOutElect" sheetId="5" r:id="rId4"/>
+    <sheet name="ExamMasterSubGr_WithElect" sheetId="6" r:id="rId5"/>
+    <sheet name="search_SubjectInSubjectList" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>MasterCategoryName</t>
   </si>
@@ -52,13 +55,43 @@
   </si>
   <si>
     <t>UKG</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>Max Subject</t>
+  </si>
+  <si>
+    <t>maxAppl Subject</t>
+  </si>
+  <si>
+    <t>MinAppl Subject</t>
+  </si>
+  <si>
+    <t>BestOfSubject</t>
+  </si>
+  <si>
+    <t>Subject Group Without Elective</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Subject Group With Elective</t>
+  </si>
+  <si>
+    <t>SubjectName</t>
+  </si>
+  <si>
+    <t>GENERAL SCIENCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +103,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -104,6 +143,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -533,4 +575,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/vapsTechnosoft/IVRM/data/ExamMasters.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/ExamMasters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15255" windowHeight="7185" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15255" windowHeight="7185" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ExamMasterCategory_FormData" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>MasterCategoryName</t>
   </si>
@@ -72,9 +72,6 @@
     <t>BestOfSubject</t>
   </si>
   <si>
-    <t>Subject Group Without Elective</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>GENERAL SCIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vaps Subject Group Without Elective</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -616,19 +619,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -644,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -679,19 +682,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -706,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -717,7 +720,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -725,7 +728,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>

--- a/src/main/java/com/vapsTechnosoft/IVRM/data/ExamMasters.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/ExamMasters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15255" windowHeight="7185" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15255" windowHeight="7185" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="ExamMasterCategory_FormData" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,23 @@
     <sheet name="ExamMasterSubGr_WOutElect" sheetId="5" r:id="rId4"/>
     <sheet name="ExamMasterSubGr_WithElect" sheetId="6" r:id="rId5"/>
     <sheet name="search_SubjectInSubjectList" sheetId="7" r:id="rId6"/>
+    <sheet name="ExamMasterGardeData_PerCentage" sheetId="8" r:id="rId7"/>
+    <sheet name="MasterGradeDetailsGradeA" sheetId="9" r:id="rId8"/>
+    <sheet name="MasterGradeDetailsGradeB" sheetId="10" r:id="rId9"/>
+    <sheet name="MasterGradeDetailsGradeC" sheetId="11" r:id="rId10"/>
+    <sheet name="MasterGradeDetailsGradeD" sheetId="12" r:id="rId11"/>
+    <sheet name="ExamMasterGardeData_Marks" sheetId="13" r:id="rId12"/>
+    <sheet name="filter_GradeMarksPercentage" sheetId="14" r:id="rId13"/>
+    <sheet name="MarksEntryData_form" sheetId="15" r:id="rId14"/>
+    <sheet name="filter_MarksEntryDetails" sheetId="16" r:id="rId15"/>
+    <sheet name="MarksEntry_MarksObtain" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
   <si>
     <t>MasterCategoryName</t>
   </si>
@@ -88,13 +98,148 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>Grade Name</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Grade Point</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>89.99</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>79.99</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>69.99</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>MarksPercentage</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Susdiny Grade Percentage</t>
+  </si>
+  <si>
+    <t>Susdiny Grade Marks</t>
+  </si>
+  <si>
+    <t>Academic Year</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>MATHS</t>
+  </si>
+  <si>
+    <t>FIRST UNIT TEST</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Roll Number</t>
+  </si>
+  <si>
+    <t>Admission number</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2017-019</t>
+  </si>
+  <si>
+    <t>RITESH KUMAR A</t>
+  </si>
+  <si>
+    <t>MarksObtain</t>
+  </si>
+  <si>
+    <t>87</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +257,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +301,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,6 +640,341 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
@@ -647,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -737,4 +1227,156 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/vapsTechnosoft/IVRM/data/ExamMasters.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/ExamMasters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15255" windowHeight="7185" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15255" windowHeight="7185" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ExamMasterCategory_FormData" sheetId="2" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="MarksEntryData_form" sheetId="15" r:id="rId14"/>
     <sheet name="filter_MarksEntryDetails" sheetId="16" r:id="rId15"/>
     <sheet name="MarksEntry_MarksObtain" sheetId="17" r:id="rId16"/>
+    <sheet name="MarksCalculationData" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
   <si>
     <t>MasterCategoryName</t>
   </si>
@@ -232,7 +233,13 @@
     <t>MarksObtain</t>
   </si>
   <si>
-    <t>87</t>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Academic year</t>
+  </si>
+  <si>
+    <t>ExamName</t>
   </si>
 </sst>
 </file>
@@ -898,7 +905,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -945,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -972,6 +979,60 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
